--- a/website/csv_files/Filter_PhD_Download.xlsx
+++ b/website/csv_files/Filter_PhD_Download.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,36 +484,110 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>dfbdfbdfbdf</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>kjdbnksj</t>
+          <t>dbfbdfbdf</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>cdskl</t>
+          <t>bdfbdfbdfbdf</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>kjds</t>
+          <t>dfbdfbdfbdf</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>44562</v>
+        <v>45015</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>44562</v>
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>dfbdfbdf</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>dfbdfbdf</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>bdfbdfb</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>dbdfbdfbdf</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>45008</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>dklnbdkj</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>kjndfbkjd</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>lnsdfiovbsnd</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>dskjvndj</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>44928</v>
       </c>
     </row>
   </sheetData>
